--- a/test_cases/TC-05.xlsx
+++ b/test_cases/TC-05.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -97,12 +97,21 @@
     <t>State = Houston</t>
   </si>
   <si>
-    <t>Postal Code = 1234</t>
+    <t>Postal Code = 10017</t>
   </si>
   <si>
     <t>Phone = +48512354</t>
   </si>
   <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>TS-5A</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
     <t>Test Scenario</t>
   </si>
   <si>
@@ -197,6 +206,12 @@
   </si>
   <si>
     <t>DF-003: Site did not recognize valid credentials as such so user cannot access Home page</t>
+  </si>
+  <si>
+    <t>TS-1B</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
   <si>
     <t>Alternate Test Scenario 1</t>
@@ -231,9 +246,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="d.m"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -324,11 +339,17 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +360,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
     <fill>
@@ -471,6 +498,20 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <bottom style="double">
@@ -518,20 +559,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -540,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -576,17 +603,15 @@
     <xf borderId="7" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="right" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
@@ -595,7 +620,7 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -618,27 +643,41 @@
     <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -650,10 +689,10 @@
     <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -665,10 +704,10 @@
     <xf borderId="6" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="19" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -680,7 +719,10 @@
     <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="20" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -690,11 +732,20 @@
     <xf borderId="6" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -977,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="16">
-        <v>1.0</v>
+        <v>44562.0</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -1268,7 +1319,7 @@
       <c r="D17" s="26">
         <v>10.0</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="27" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="6"/>
@@ -1382,11 +1433,19 @@
       <c r="N23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1398,72 +1457,72 @@
       <c r="N24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="29"/>
+      <c r="A25" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="34"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="37"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="42" t="s">
+      <c r="A27" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="43" t="s">
+      <c r="B27" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="43" t="s">
+      <c r="C27" s="44"/>
+      <c r="D27" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="43" t="s">
+      <c r="E27" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="37"/>
-      <c r="M27" s="43" t="s">
+      <c r="F27" s="38"/>
+      <c r="G27" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="37"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="41"/>
+      <c r="K27" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="41"/>
+      <c r="M27" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" s="41"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="11"/>
@@ -1471,168 +1530,168 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="37"/>
-      <c r="M28" s="43" t="s">
+      <c r="F28" s="38"/>
+      <c r="G28" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="37"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="41"/>
+      <c r="K28" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="41"/>
+      <c r="M28" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="41"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49" t="s">
+      <c r="A29" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="B29" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="M29" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="N29" s="49" t="s">
-        <v>49</v>
+      <c r="C29" s="14"/>
+      <c r="D29" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="53" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="50">
+      <c r="A30" s="54">
         <v>1.0</v>
       </c>
-      <c r="B30" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="33"/>
+      <c r="B30" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="14"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="L30" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52" t="s">
-        <v>54</v>
+      <c r="G30" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="50">
+      <c r="A31" s="54">
         <v>2.0</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="51" t="s">
+      <c r="H31" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="L31" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52" t="s">
-        <v>54</v>
+      <c r="I31" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="50">
+      <c r="A32" s="54">
         <v>3.0</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56" t="s">
         <v>57</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I32" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="L32" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -1642,13 +1701,13 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="13"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
       <c r="L33" s="25"/>
-      <c r="M33" s="13"/>
+      <c r="M33" s="57"/>
       <c r="N33" s="25"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -1672,20 +1731,20 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="53" t="s">
-        <v>60</v>
+      <c r="G36" s="58" t="s">
+        <v>63</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="54" t="s">
-        <v>60</v>
+      <c r="I36" s="59" t="s">
+        <v>63</v>
       </c>
       <c r="J36" s="5"/>
-      <c r="K36" s="54" t="s">
-        <v>60</v>
+      <c r="K36" s="59" t="s">
+        <v>63</v>
       </c>
       <c r="L36" s="5"/>
-      <c r="M36" s="54" t="s">
-        <v>60</v>
+      <c r="M36" s="59" t="s">
+        <v>63</v>
       </c>
       <c r="N36" s="5"/>
     </row>
@@ -1696,16 +1755,16 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="33"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="33"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" s="14"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="6"/>
@@ -1714,14 +1773,14 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="33"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="6"/>
@@ -1730,14 +1789,14 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="22"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="33"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="14"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="6"/>
@@ -1746,14 +1805,14 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="33"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="14"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="6"/>
@@ -1762,14 +1821,14 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="22"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="33"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="14"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="6"/>
@@ -1838,11 +1897,19 @@
       <c r="N49" s="6"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="A50" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="5"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -1854,72 +1921,72 @@
       <c r="N50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="29"/>
+      <c r="A51" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="34"/>
       <c r="F51" s="17"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="37"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="41"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="42" t="s">
+      <c r="A53" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" s="37"/>
-      <c r="I53" s="43" t="s">
+      <c r="B53" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="44"/>
+      <c r="D53" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="J53" s="37"/>
-      <c r="K53" s="43" t="s">
+      <c r="E53" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="L53" s="37"/>
-      <c r="M53" s="43" t="s">
+      <c r="F53" s="38"/>
+      <c r="G53" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="N53" s="37"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J53" s="41"/>
+      <c r="K53" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="L53" s="41"/>
+      <c r="M53" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="N53" s="41"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="11"/>
@@ -1927,228 +1994,228 @@
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="37"/>
-      <c r="I54" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="J54" s="37"/>
-      <c r="K54" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="L54" s="37"/>
-      <c r="M54" s="43" t="s">
+      <c r="F54" s="38"/>
+      <c r="G54" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="N54" s="37"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="J54" s="41"/>
+      <c r="K54" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="L54" s="41"/>
+      <c r="M54" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="N54" s="41"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49" t="s">
+      <c r="A55" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="H55" s="49" t="s">
+      <c r="B55" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I55" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="J55" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="K55" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="L55" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="M55" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="N55" s="49" t="s">
-        <v>49</v>
+      <c r="C55" s="14"/>
+      <c r="D55" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J55" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="K55" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="M55" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="N55" s="53" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="50">
+      <c r="A56" s="54">
         <v>1.0</v>
       </c>
-      <c r="B56" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="33"/>
+      <c r="B56" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="14"/>
       <c r="F56" s="22"/>
-      <c r="G56" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I56" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="J56" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="K56" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="L56" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52" t="s">
-        <v>54</v>
+      <c r="G56" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="50">
+      <c r="A57" s="54">
         <v>2.0</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="51" t="s">
+      <c r="H57" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H57" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I57" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="J57" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="K57" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="L57" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52" t="s">
-        <v>54</v>
+      <c r="I57" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K57" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L57" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="50">
+      <c r="A58" s="54">
         <v>3.0</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K58" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H58" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I58" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="J58" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="K58" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="L58" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="50">
+      <c r="A59" s="54">
         <v>4.0</v>
       </c>
-      <c r="B59" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="33"/>
+      <c r="B59" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="14"/>
       <c r="F59" s="22"/>
-      <c r="G59" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H59" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I59" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="K59" s="13"/>
+      <c r="G59" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H59" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="K59" s="57"/>
       <c r="L59" s="25"/>
-      <c r="M59" s="13"/>
+      <c r="M59" s="57"/>
       <c r="N59" s="25"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="50">
+      <c r="A60" s="54">
         <v>5.0</v>
       </c>
-      <c r="B60" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="33"/>
+      <c r="B60" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="14"/>
       <c r="F60" s="22"/>
-      <c r="G60" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="H60" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I60" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="J60" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="K60" s="13"/>
+      <c r="G60" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" s="57"/>
       <c r="L60" s="25"/>
-      <c r="M60" s="13"/>
+      <c r="M60" s="57"/>
       <c r="N60" s="25"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -2166,20 +2233,20 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="53" t="s">
-        <v>60</v>
+      <c r="G62" s="58" t="s">
+        <v>63</v>
       </c>
       <c r="H62" s="5"/>
-      <c r="I62" s="54" t="s">
-        <v>60</v>
+      <c r="I62" s="59" t="s">
+        <v>63</v>
       </c>
       <c r="J62" s="5"/>
-      <c r="K62" s="54" t="s">
-        <v>60</v>
+      <c r="K62" s="59" t="s">
+        <v>63</v>
       </c>
       <c r="L62" s="5"/>
-      <c r="M62" s="54" t="s">
-        <v>60</v>
+      <c r="M62" s="59" t="s">
+        <v>63</v>
       </c>
       <c r="N62" s="5"/>
     </row>
@@ -2190,16 +2257,16 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="J63" s="33"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="33"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="J63" s="14"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="60"/>
+      <c r="N63" s="14"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="6"/>
@@ -2208,14 +2275,14 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="33"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="60"/>
+      <c r="N64" s="14"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="6"/>
@@ -2224,14 +2291,14 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="33"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="14"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="6"/>
@@ -2240,14 +2307,14 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="33"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="14"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="6"/>
@@ -2256,14 +2323,14 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="33"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="60"/>
+      <c r="N67" s="14"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="6"/>
@@ -3241,7 +3308,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="91">
+  <mergeCells count="94">
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:E52"/>
     <mergeCell ref="G52:N52"/>
@@ -3249,6 +3316,7 @@
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
@@ -3289,13 +3357,6 @@
     <mergeCell ref="M66:N66"/>
     <mergeCell ref="G67:H67"/>
     <mergeCell ref="I67:J67"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
@@ -3333,6 +3394,15 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
